--- a/data/excel/roundtrip1.xlsx
+++ b/data/excel/roundtrip1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webdriverwork\projectb2c1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectb2c1\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="6855"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="142">
   <si>
     <t>username</t>
   </si>
@@ -284,9 +284,6 @@
     <t>5566774,4667785,0098786786</t>
   </si>
   <si>
-    <t>India (IN),India (IN),India (IN)</t>
-  </si>
-  <si>
     <t>6,10,17</t>
   </si>
   <si>
@@ -317,12 +314,6 @@
     <t>232323,454545</t>
   </si>
   <si>
-    <t>India (IN),India (IN)</t>
-  </si>
-  <si>
-    <t>2021,2025</t>
-  </si>
-  <si>
     <t>Afghan,Austrian</t>
   </si>
   <si>
@@ -335,9 +326,6 @@
     <t>Adult1,Adult2</t>
   </si>
   <si>
-    <t>India (IN),Australia (AU)</t>
-  </si>
-  <si>
     <t>Indian,Indian</t>
   </si>
   <si>
@@ -356,12 +344,6 @@
     <t>Jaipur</t>
   </si>
   <si>
-    <t>India (IN)</t>
-  </si>
-  <si>
-    <t>Debit Card</t>
-  </si>
-  <si>
     <t>4811111111111114</t>
   </si>
   <si>
@@ -374,9 +356,6 @@
     <t>adult id</t>
   </si>
   <si>
-    <t>476376,544433</t>
-  </si>
-  <si>
     <t>child id</t>
   </si>
   <si>
@@ -422,16 +401,55 @@
     <t>del</t>
   </si>
   <si>
-    <t>New Delhi, India - Indira Gandhi International Airport (DEL)</t>
-  </si>
-  <si>
-    <t>dxb</t>
-  </si>
-  <si>
-    <t>Dubai, United Arab Emirates - Dubai International Airport (DXB)</t>
-  </si>
-  <si>
-    <t>2019,2019</t>
+    <t>Delhi, India - Indira Gandhi International Airport (DEL)</t>
+  </si>
+  <si>
+    <t>London, United Kingdom - Heathrow Airport (LHR)</t>
+  </si>
+  <si>
+    <t>lhr</t>
+  </si>
+  <si>
+    <t>9212487567,9460300000</t>
+  </si>
+  <si>
+    <t>India,India,India</t>
+  </si>
+  <si>
+    <t>India,India</t>
+  </si>
+  <si>
+    <t>2021,2021</t>
+  </si>
+  <si>
+    <t>India,Australia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>anjali.jain@gmail.com</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>2027,2025</t>
+  </si>
+  <si>
+    <t>2024,2025</t>
+  </si>
+  <si>
+    <t>2028,2025</t>
+  </si>
+  <si>
+    <t>2025,2025</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>//v12staging/qlmetab2c/</t>
   </si>
 </sst>
 </file>
@@ -497,13 +515,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,501 +804,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA2"/>
+  <dimension ref="A1:CB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="79" max="79" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col min="28" max="28" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
-        <v>115</v>
-      </c>
       <c r="Z1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="AO1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2">
-        <v>2282020</v>
-      </c>
       <c r="I2">
-        <v>2292020</v>
-      </c>
-      <c r="J2" t="s">
+        <v>3282022</v>
+      </c>
+      <c r="J2">
+        <v>3302022</v>
+      </c>
+      <c r="K2" t="s">
         <v>75</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV2" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="AW2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ2">
+        <v>202019</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BW2">
+        <v>11</v>
+      </c>
+      <c r="BX2">
+        <v>2026</v>
+      </c>
+      <c r="BY2">
+        <v>123</v>
+      </c>
+      <c r="BZ2">
+        <v>112233</v>
+      </c>
+      <c r="CA2">
+        <v>786</v>
+      </c>
+      <c r="CB2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3">
+        <v>4282022</v>
+      </c>
+      <c r="J3">
+        <v>4302022</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="S3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" t="s">
         <v>79</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U3" t="s">
         <v>80</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V3" t="s">
         <v>81</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W3" t="s">
         <v>82</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X3" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA3">
+        <v>91</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>116</v>
       </c>
-      <c r="Z2">
+      <c r="BK3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ3">
+        <v>202019</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BW3">
+        <v>11</v>
+      </c>
+      <c r="BX3">
+        <v>2026</v>
+      </c>
+      <c r="BY3">
+        <v>123</v>
+      </c>
+      <c r="BZ3">
+        <v>112233</v>
+      </c>
+      <c r="CA3">
+        <v>786</v>
+      </c>
+      <c r="CB3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4">
+        <v>4112022</v>
+      </c>
+      <c r="J4">
+        <v>4162022</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4">
         <v>91</v>
       </c>
-      <c r="AA2">
-        <v>9212487567</v>
-      </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE4" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF4" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH4" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AK4" t="s">
         <v>91</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL4" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM4" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU4" t="s">
         <v>96</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AV4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW4" t="s">
         <v>97</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AX4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>93</v>
       </c>
-      <c r="AR2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="BA4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ4">
+        <v>202019</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AV2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="BU4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BW4">
+        <v>11</v>
+      </c>
+      <c r="BX4">
+        <v>2026</v>
+      </c>
+      <c r="BY4">
         <v>123</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP2">
-        <v>202019</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV2">
-        <v>11</v>
-      </c>
-      <c r="BW2">
-        <v>2020</v>
-      </c>
-      <c r="BX2">
-        <v>123</v>
-      </c>
-      <c r="BY2">
+      <c r="BZ4">
         <v>112233</v>
       </c>
-      <c r="BZ2">
+      <c r="CA4">
         <v>786</v>
       </c>
-      <c r="CA2">
+      <c r="CB4">
         <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="H14" s="6">
+        <v>44672</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="R2" r:id="rId2"/>
+    <hyperlink ref="Z2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="R3" r:id="rId5"/>
+    <hyperlink ref="Z3" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="R4" r:id="rId8"/>
+    <hyperlink ref="Z4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>